--- a/medicine/Sexualité et sexologie/Louis-Charles_Fougeret_de_Monbron/Louis-Charles_Fougeret_de_Monbron.xlsx
+++ b/medicine/Sexualité et sexologie/Louis-Charles_Fougeret_de_Monbron/Louis-Charles_Fougeret_de_Monbron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Charles Fougeret de Monbron (aussi orthographié Montbron), né le 19 décembre 1706 à Péronne et mort le 16 septembre 1760 à Paris, est un homme de lettres français.
 </t>
@@ -511,9 +523,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient à une dynastie de financiers. Il est le second fils de Jean Fougeret, trésorier de l'extraodinaire des guerres (1733), et de Marie Parvillers. En 1733, son frère Jean Pierre Fougeret, intéressé dans les fermes du roi (1751) épouse Anne Angélique Puzos, fille de Nicolas Puzos, maître chirurgien juré à Paris et Marie Anne de la Fontaine[1]: de leur union naissent deux garçons, Jean Fougeret, (1734-1794 guil.) receveur général des finances de Franche-Comté qui épouse Anne Françoise d’Outremont (1746-1813), et Nicolas Marie Fougeret de Saint-Cren.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient à une dynastie de financiers. Il est le second fils de Jean Fougeret, trésorier de l'extraodinaire des guerres (1733), et de Marie Parvillers. En 1733, son frère Jean Pierre Fougeret, intéressé dans les fermes du roi (1751) épouse Anne Angélique Puzos, fille de Nicolas Puzos, maître chirurgien juré à Paris et Marie Anne de la Fontaine: de leur union naissent deux garçons, Jean Fougeret, (1734-1794 guil.) receveur général des finances de Franche-Comté qui épouse Anne Françoise d’Outremont (1746-1813), et Nicolas Marie Fougeret de Saint-Cren.
 </t>
         </is>
       </c>
@@ -542,40 +556,180 @@
           <t>Une vie d'écrivain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Grand voyageur, Fougeret de Monbron met à profit ses voyages dans toute l’Europe pour rédiger Le Cosmopolite ou le Citoyen du Monde (1750). Il y énonce cette maxime passée en proverbe : « L’univers est une espèce de livre dont on n’a lu que la première page quand on n’a vu que son pays[2] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand voyageur, Fougeret de Monbron met à profit ses voyages dans toute l’Europe pour rédiger Le Cosmopolite ou le Citoyen du Monde (1750). Il y énonce cette maxime passée en proverbe : « L’univers est une espèce de livre dont on n’a lu que la première page quand on n’a vu que son pays ».
 Il est l'auteur, entre autres, de La Henriade travestie (Berlin [Paris], 1745, in-12), sans doute l'ouvrage burlesque le plus diffusé du siècle des Lumières, où il s’est livré à une parodie presque vers par vers de l’original de Voltaire.[réf. nécessaire]
-Il a également laissé deux pamphlets, le Préservatif contre l'anglomanie (1757) et La Capitale des Gaules ou la Nouvelle Babylone (1759), visant respectivement l’Angleterre et Paris[3].
-Il a selon toute vraisemblance traduit Fanny Hill de John Cleland, sous le titre de La Fille de joie (1751)[4]. On lui doit aussi des récits libertins comme Le Canapé ou Le Canapé couleur de feu (1741), une réponse au Sopha de Claude-Prosper Jolyot de Crébillon, qui circulait alors en manuscrit; ou Margot la ravaudeuse (habituellement datée de 1750, mais plus vraisemblablement parue en 1753 après une première tentative d'édition avortée en 1748).
+Il a également laissé deux pamphlets, le Préservatif contre l'anglomanie (1757) et La Capitale des Gaules ou la Nouvelle Babylone (1759), visant respectivement l’Angleterre et Paris.
+Il a selon toute vraisemblance traduit Fanny Hill de John Cleland, sous le titre de La Fille de joie (1751). On lui doit aussi des récits libertins comme Le Canapé ou Le Canapé couleur de feu (1741), une réponse au Sopha de Claude-Prosper Jolyot de Crébillon, qui circulait alors en manuscrit; ou Margot la ravaudeuse (habituellement datée de 1750, mais plus vraisemblablement parue en 1753 après une première tentative d'édition avortée en 1748).
 Arrêté une première fois le 7 novembre 1748, et incarcéré au For-l'Évêque jusqu'au 5 décembre suivant, Fougeret de Monbron est arrêté une seconde fois à Toulouse, le 14 mars 1755, d'où il est transféré à la Bastille, lieu de sa nouvelle incarcération du 12 avril au 25 septembre 1755.
-Réception
-Pour Denis Diderot, il est l’« auteur de quelques brochures où l’on trouve beaucoup de fiel et peu, très-peu de talent »[5]. C'est à la suite de cette évocation que Diderot rapporte que Fougeret de Montbron se présenta à lui comme un homme au « cœur velu », insensible, en particulier, à un morceau pathétique de Lully qu'ils venaient d'entendre ; Diderot ne s'approprie donc ni ce second jugement, ni la formule, mais surpris par cette insensibilité ajoute : « Je frissonne ; je m’éloigne du tigre à deux pieds ».
-Œuvres personnelles (premières éditions)
-Le premier livre de Fougeret de Monbron a connu deux éditions sous deux titres différents la même année, en 1741 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Une vie d'écrivain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Denis Diderot, il est l’« auteur de quelques brochures où l’on trouve beaucoup de fiel et peu, très-peu de talent ». C'est à la suite de cette évocation que Diderot rapporte que Fougeret de Montbron se présenta à lui comme un homme au « cœur velu », insensible, en particulier, à un morceau pathétique de Lully qu'ils venaient d'entendre ; Diderot ne s'approprie donc ni ce second jugement, ni la formule, mais surpris par cette insensibilité ajoute : « Je frissonne ; je m’éloigne du tigre à deux pieds ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Une vie d'écrivain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres personnelles (premières éditions)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le premier livre de Fougeret de Monbron a connu deux éditions sous deux titres différents la même année, en 1741 :
 Le Canapé, par M. de ***, La Haye, Popi, s.d. [1741, date vraisemblable]
 Le Canapé couleur de feu, par M. de ***, Amsterdam [Paris], Compagnie des Libraires, 1741
 Fougeret de Monbron a écrit une ode en 1744, connue sous trois titres :
-Ode dans le goût des autres, s. l. n. d., [1744], 4 p. in-8°
-Ode dans le goust des autres, Metz, Imprimerie de Jean Antoine, s. d., [1744], 4 p., in-4°
+Ode dans le goût des autres, s. l. n. d., , 4 p. in-8°
+Ode dans le goust des autres, Metz, Imprimerie de Jean Antoine, s. d., , 4 p., in-4°
 Ode comme les autres, s. l., 1744, 6 p., in-4°.
 Discours prononcé au Roy par un paysan de Chaillot, signé Guillot le Bedaut, s. l., 1744.
 La Henriade travestie en vers burlesques, Berlin [Paris], 1745.
 Le Cosmopolite, ou le Citoïen du Monde, s. l. [La Haye], s. n. [Pierre Gosse ?], 1750.
-Margot la ravaudeuse, par Mr de M**, A Hambourg, MDCCC [1753]
+Margot la ravaudeuse, par Mr de M**, A Hambourg, MDCCC 
 Préservatif contre l’anglomanie, A Minorque, [Paris, Duchesne], 1757.
-La Capitale des Gaules, ou La Nouvelle Babilonne, La Haye, 1759.
-Éditions modernes
-Le Cosmopolite ou le Citoyen du monde, suivi de La Capitale des Gaules ou la Nouvelle Babylone, intro. et notes par Raymond Trousson, Bordeaux, Ducros, 1970
+La Capitale des Gaules, ou La Nouvelle Babilonne, La Haye, 1759.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Une vie d'écrivain</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éditions modernes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Cosmopolite ou le Citoyen du monde, suivi de La Capitale des Gaules ou la Nouvelle Babylone, intro. et notes par Raymond Trousson, Bordeaux, Ducros, 1970
 Margot la ravaudeuse, Euredif, coll. « Aphrodite classique » no 42, 1977
 Margot la ravaudeuse (intro., édit. et notes par Raymond Trousson) dans R. Trousson (éd.), Romans libertins du XVIIIe siècle, Robert Laffont, coll. « Bouquins », 1993, p. 659-737
 Le Canapé couleur de feu : histoire galante, Toulouse, Ombres, coll. « Petite bibliothèque Ombres » no 132, 2000  (ISBN 978-2-84142-121-3)
 Margot la ravaudeuse, Le Canapé couleur de feu, éd. Catriona Seth, Paris, Le Monde et Classiques Garnier, 2010
 Le Cosmopolite, ou Le Citoyen du monde, éd. Édouard Langille, Londres, Modern Humanities Research Association, 2010  (ISBN 9781907322044)
 Le Cosmopolite, ou Le Citoyen du monde, Rivages, coll. « Petite bibliothèque », 2014  (ISBN 978-2-7436-2680-8)
-Margot la ravaudeuse, Gallimard, coll. « Folio » no 5899, 2015  (ISBN 978-2-07-046262-9)
-Traductions des œuvres de Fougeret de Monbron
-Le Canapé couleur de feu a été traduit en anglais : The Settee, or, Chevalier Commodo’s metamorphosis, by Monsieur de ******, from the French, London, s. n., 1742
+Margot la ravaudeuse, Gallimard, coll. « Folio » no 5899, 2015  (ISBN 978-2-07-046262-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Charles_Fougeret_de_Monbron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Une vie d'écrivain</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traductions des œuvres de Fougeret de Monbron</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Canapé couleur de feu a été traduit en anglais : The Settee, or, Chevalier Commodo’s metamorphosis, by Monsieur de ******, from the French, London, s. n., 1742
 Le Cosmopolite a été traduit en allemand : Der Cosmopolit, oder Der Weltbürger, aus dem Französischen des Herr Monbrun, Francfurt, 1758
 La Capitale des Gaules a été traduit en allemand : Die Hauptstadt der Gallier oder das neue Babylon, Aus dem Französischen erßekt, und mit Unmerfungen begleitet. Erster Theil. Ulm, 1761. Aus Rosten der Bartholomäischen handlung, 183 p. [contient les 2 parties de La Capitale des Gaules et L’Anti-Babylone [Das Anti-Babylon, oder Antwort an den Berfasser der Hauptstadt der Gallier] d’Ange Goudar, pagination continue : 1-42; 43-136 et 137-182 pour les trois composantes respectives]
 Margot la Ravaudeuse a été publié plusieurs fois en allemand : Margot die Flickschusterin (traduit par Helmuth Leonhardt), illustrations de Margrit Behnemann, Hambourg, Kala Vael, 1964 ; Margot die Flickschusterin (éd. Peter Schalk), Munich, Heyne, 1978 ; Margot die Flickschusterin : galante Abenteuer im Frankreich des 18. Jh., Munich, Heyne, 1979
